--- a/apiAnalisis/Datasets/DatasetBanco/2.DescripcionAtributosDatasetBanco.xlsx
+++ b/apiAnalisis/Datasets/DatasetBanco/2.DescripcionAtributosDatasetBanco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPS\Dropbox\9.Docencia\1.MATERIAS\2.PROYECTOS DE SOFTWARE\PROYECTO56\RequerimientosyDataset\DatasetyDescripcion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPS\Dropbox\7.ProyectoNegocio\1.ProyectoMLanalisisdatos\apiAnalisis\Datasets\DatasetBanco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D238F6-59C9-41DF-96C8-232F0A58B35A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1F4AD3-E4FB-4BC8-BD58-FA42927AE51A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>DNI</t>
   </si>
@@ -416,9 +416,6 @@
     <t>Tiempo de empleo</t>
   </si>
   <si>
-    <t>Estado civil</t>
-  </si>
-  <si>
     <t>Calculado desde fecha de nacimiento (registro de cliente)</t>
   </si>
   <si>
@@ -450,6 +447,30 @@
   </si>
   <si>
     <t>Cantidad de créditos existentes</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>persona</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>nombreVariable</t>
+  </si>
+  <si>
+    <t>estadocivilysexo</t>
+  </si>
+  <si>
+    <t>A91</t>
   </si>
 </sst>
 </file>
@@ -830,8 +851,8 @@
   </sheetPr>
   <dimension ref="A1:V194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1273,18 +1294,42 @@
       <c r="D12" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C13" s="22"/>
       <c r="D13" s="4" t="s">
         <v>99</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C14" s="22"/>
       <c r="D14" s="3" t="s">
         <v>100</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
@@ -1301,7 +1346,7 @@
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="20"/>
     </row>
@@ -1330,7 +1375,7 @@
         <v>107</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="17"/>
@@ -1350,7 +1395,7 @@
         <v>111</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="17"/>
@@ -1360,7 +1405,7 @@
         <v>113</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="17"/>
@@ -1380,7 +1425,7 @@
         <v>116</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="17"/>
@@ -1390,7 +1435,7 @@
         <v>118</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="17"/>
@@ -1400,7 +1445,7 @@
         <v>119</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
@@ -1451,7 +1496,7 @@
         <v>112</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
@@ -1461,7 +1506,7 @@
         <v>115</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="17"/>
@@ -1471,17 +1516,17 @@
         <v>117</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>130</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>131</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="18"/>
